--- a/Treino/Semana 1/Exercicios Semana 1.xlsx
+++ b/Treino/Semana 1/Exercicios Semana 1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositorios\GitHub\maratonaSBC\Treino\Semana 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{308861FA-E31F-433B-834D-D5E901B3D31E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{581555CC-E8B3-43BC-9BAF-0172ACE56732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{6516F2F2-F6EE-40A4-9475-507382225D20}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Nome</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>Daniel</t>
+  </si>
+  <si>
+    <t>Teste</t>
   </si>
 </sst>
 </file>
@@ -461,7 +464,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -507,9 +510,16 @@
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="4"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D6" s="4"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H9" s="4"/>
